--- a/parameters/inputs_RubellaBaseline.xlsx
+++ b/parameters/inputs_RubellaBaseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469FCAA4-0D53-7C41-B5C0-9AD66942E774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10063A19-EDAA-FF45-B1BB-B1214A3A628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="singles" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B2701-AD49-D043-B00B-058E17252513}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,8 +1545,7 @@
         <v>1</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7397260273972601E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -12493,8 +12492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B76FC-0A1C-AF49-BE56-AA8CBAA2EE6D}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection sqref="A1:AE109"/>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="AH18" sqref="AH18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12596,1142 +12595,1142 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B2">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C2">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D2">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E2">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F2">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G2">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H2">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I2">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J2">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K2">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L2">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M2">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N2">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O2">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P2">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q2">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R2">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S2">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T2">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U2">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V2">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W2">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X2">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y2">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z2">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA2">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB2">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC2">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD2">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE2">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B3">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C3">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D3">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E3">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F3">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G3">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H3">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I3">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J3">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K3">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L3">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M3">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N3">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O3">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P3">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q3">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R3">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S3">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T3">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U3">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V3">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W3">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X3">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y3">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z3">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA3">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB3">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC3">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD3">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE3">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B4">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C4">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D4">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E4">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F4">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G4">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H4">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I4">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J4">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K4">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L4">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M4">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N4">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O4">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P4">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q4">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R4">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S4">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T4">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U4">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V4">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W4">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X4">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y4">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z4">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA4">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB4">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC4">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD4">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE4">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B5">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C5">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D5">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E5">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F5">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G5">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H5">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I5">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J5">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K5">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L5">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M5">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N5">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O5">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P5">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q5">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R5">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S5">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T5">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U5">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V5">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W5">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X5">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y5">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z5">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA5">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB5">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC5">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD5">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE5">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B6">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C6">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D6">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E6">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F6">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G6">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H6">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I6">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J6">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K6">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L6">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M6">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N6">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O6">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P6">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q6">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R6">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S6">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T6">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U6">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V6">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W6">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X6">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y6">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z6">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA6">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB6">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC6">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD6">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE6">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B7">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C7">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D7">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E7">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F7">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G7">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H7">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I7">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J7">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K7">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L7">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M7">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N7">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O7">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P7">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q7">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R7">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S7">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T7">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U7">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V7">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W7">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X7">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y7">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z7">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA7">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB7">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC7">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD7">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE7">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B8">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C8">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D8">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E8">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F8">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G8">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H8">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I8">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J8">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K8">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L8">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M8">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N8">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O8">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P8">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q8">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R8">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S8">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T8">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U8">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V8">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W8">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X8">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y8">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z8">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA8">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB8">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC8">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD8">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE8">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B9">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C9">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D9">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E9">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F9">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G9">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H9">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I9">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J9">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K9">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L9">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M9">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N9">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O9">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P9">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q9">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R9">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S9">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T9">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U9">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V9">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W9">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X9">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y9">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z9">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA9">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB9">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC9">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD9">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE9">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B10">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C10">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D10">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E10">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F10">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G10">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H10">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I10">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J10">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K10">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L10">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M10">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N10">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O10">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P10">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q10">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R10">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S10">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T10">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U10">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V10">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W10">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X10">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y10">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z10">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA10">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB10">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC10">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD10">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE10">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B11">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C11">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D11">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E11">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F11">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G11">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H11">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I11">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J11">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K11">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L11">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M11">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N11">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O11">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P11">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q11">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R11">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S11">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T11">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U11">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V11">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W11">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X11">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y11">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z11">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA11">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB11">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC11">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD11">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE11">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B12">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C12">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D12">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E12">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F12">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G12">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H12">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I12">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J12">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K12">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L12">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M12">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N12">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O12">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P12">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q12">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R12">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S12">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T12">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U12">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V12">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W12">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X12">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y12">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z12">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA12">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB12">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC12">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD12">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE12">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>4.4601637960055987E-3</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B13">
-        <v>4.4666090269633281E-3</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C13">
-        <v>4.5782132732220529E-3</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D13">
-        <v>4.7151358823489488E-3</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E13">
-        <v>4.6690852366479754E-3</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F13">
-        <v>4.4217752914937165E-3</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G13">
-        <v>4.1477052162151168E-3</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H13">
-        <v>3.8051208298679018E-3</v>
+        <v>4.566144995841482E-2</v>
       </c>
       <c r="I13">
-        <v>3.4150404233178728E-3</v>
+        <v>4.0980485079814472E-2</v>
       </c>
       <c r="J13">
-        <v>2.9977800718032637E-3</v>
+        <v>3.5973360861639166E-2</v>
       </c>
       <c r="K13">
-        <v>2.645374824250576E-3</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L13">
-        <v>2.3985016910050704E-3</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M13">
-        <v>2.2917534009278214E-3</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N13">
-        <v>2.1979342531770981E-3</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O13">
-        <v>2.10264343026867E-3</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P13">
-        <v>2.0154569808620041E-3</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q13">
-        <v>1.9445316106237792E-3</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R13">
-        <v>1.903845054971676E-3</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S13">
-        <v>1.8494237281951635E-3</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T13">
-        <v>1.8001488665412308E-3</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U13">
-        <v>1.7532617536615107E-3</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V13">
-        <v>1.7078416735399188E-3</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W13">
-        <v>1.6636385036836309E-3</v>
+        <v>1.9963662044203571E-2</v>
       </c>
       <c r="X13">
-        <v>1.6214563356064984E-3</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y13">
-        <v>1.5803245441193892E-3</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z13">
-        <v>1.5407095695859376E-3</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA13">
-        <v>1.5022738701053675E-3</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB13">
-        <v>1.4649926926580195E-3</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC13">
-        <v>1.4288033670846164E-3</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD13">
-        <v>1.3936641907393819E-3</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE13">
-        <v>1.3595419108897832E-3</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
@@ -22855,7 +22854,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AE109 AG7">
+  <conditionalFormatting sqref="A2:AE109 AG7:AH7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/parameters/inputs_RubellaBaseline.xlsx
+++ b/parameters/inputs_RubellaBaseline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10063A19-EDAA-FF45-B1BB-B1214A3A628A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE4D4F-4FC9-6646-A479-5048EF43C309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="1" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="singles" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B2701-AD49-D043-B00B-058E17252513}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B110" sqref="B110"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1545,8 @@
         <v>1</v>
       </c>
       <c r="B109" s="2">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>2.7397260273972601E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -12492,8 +12493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B76FC-0A1C-AF49-BE56-AA8CBAA2EE6D}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12595,4562 +12596,4562 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B2">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C2">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D2">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E2">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F2">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G2">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H2">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I2">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J2">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K2">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L2">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M2">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N2">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O2">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P2">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q2">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R2">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S2">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T2">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U2">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V2">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W2">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X2">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y2">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z2">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA2">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB2">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC2">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD2">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE2">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B3">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C3">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D3">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E3">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F3">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G3">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H3">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I3">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J3">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K3">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L3">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M3">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N3">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O3">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P3">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q3">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R3">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S3">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T3">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U3">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V3">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W3">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X3">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y3">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z3">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA3">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB3">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC3">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD3">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE3">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B4">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C4">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D4">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E4">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F4">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G4">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H4">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I4">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J4">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K4">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L4">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M4">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N4">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O4">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P4">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q4">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R4">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S4">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T4">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U4">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V4">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W4">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X4">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y4">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z4">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA4">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB4">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC4">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD4">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE4">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B5">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C5">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D5">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E5">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F5">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G5">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H5">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I5">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J5">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K5">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L5">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M5">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N5">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O5">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P5">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q5">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R5">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S5">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T5">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U5">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V5">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W5">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X5">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y5">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z5">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA5">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB5">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC5">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD5">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE5">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B6">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C6">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D6">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E6">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F6">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G6">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H6">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I6">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J6">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K6">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L6">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M6">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N6">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O6">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P6">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q6">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R6">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S6">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T6">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U6">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V6">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W6">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X6">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y6">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z6">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA6">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB6">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC6">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD6">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE6">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B7">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C7">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D7">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E7">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F7">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G7">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H7">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I7">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J7">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K7">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L7">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M7">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N7">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O7">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P7">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q7">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R7">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S7">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T7">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U7">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V7">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W7">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X7">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y7">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z7">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA7">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB7">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC7">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD7">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE7">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B8">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C8">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D8">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E8">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F8">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G8">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H8">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I8">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J8">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K8">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L8">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M8">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N8">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O8">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P8">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q8">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R8">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S8">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T8">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U8">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V8">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W8">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X8">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y8">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z8">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA8">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB8">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC8">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD8">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE8">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B9">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C9">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D9">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E9">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F9">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G9">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H9">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I9">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J9">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K9">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L9">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M9">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N9">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O9">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P9">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q9">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R9">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S9">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T9">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U9">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V9">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W9">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X9">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y9">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z9">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA9">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB9">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC9">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD9">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE9">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B10">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C10">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D10">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E10">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F10">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G10">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H10">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I10">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J10">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K10">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L10">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M10">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N10">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O10">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P10">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q10">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R10">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S10">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T10">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U10">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V10">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W10">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X10">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y10">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z10">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA10">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB10">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC10">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD10">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE10">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B11">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C11">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D11">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E11">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F11">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G11">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H11">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I11">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J11">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K11">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L11">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M11">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N11">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O11">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P11">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q11">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R11">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S11">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T11">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U11">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V11">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W11">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X11">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y11">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z11">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA11">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB11">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC11">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD11">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE11">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B12">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C12">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D12">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E12">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F12">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G12">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H12">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I12">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J12">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K12">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L12">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M12">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N12">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O12">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P12">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q12">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R12">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S12">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T12">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U12">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V12">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W12">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X12">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y12">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z12">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA12">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB12">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC12">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD12">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE12">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>5.3521965552067188E-2</v>
+        <v>3.7168031633379991E-4</v>
       </c>
       <c r="B13">
-        <v>5.3599308323559941E-2</v>
+        <v>3.7221741891361066E-4</v>
       </c>
       <c r="C13">
-        <v>5.4938559278664631E-2</v>
+        <v>3.8151777276850441E-4</v>
       </c>
       <c r="D13">
-        <v>5.6581630588187382E-2</v>
+        <v>3.9292799019574571E-4</v>
       </c>
       <c r="E13">
-        <v>5.6029022839775705E-2</v>
+        <v>3.890904363873313E-4</v>
       </c>
       <c r="F13">
-        <v>5.3061303497924595E-2</v>
+        <v>3.6848127429114306E-4</v>
       </c>
       <c r="G13">
-        <v>4.9772462594581401E-2</v>
+        <v>3.4564210135125975E-4</v>
       </c>
       <c r="H13">
-        <v>4.566144995841482E-2</v>
+        <v>3.170934024889918E-4</v>
       </c>
       <c r="I13">
-        <v>4.0980485079814472E-2</v>
+        <v>2.8458670194315608E-4</v>
       </c>
       <c r="J13">
-        <v>3.5973360861639166E-2</v>
+        <v>2.4981500598360529E-4</v>
       </c>
       <c r="K13">
-        <v>3.1744497891006911E-2</v>
+        <v>2.2044790202088133E-4</v>
       </c>
       <c r="L13">
-        <v>2.8782020292060846E-2</v>
+        <v>1.9987514091708919E-4</v>
       </c>
       <c r="M13">
-        <v>2.7501040811133859E-2</v>
+        <v>1.9097945007731846E-4</v>
       </c>
       <c r="N13">
-        <v>2.6375211038125179E-2</v>
+        <v>1.8316118776475819E-4</v>
       </c>
       <c r="O13">
-        <v>2.5231721163224041E-2</v>
+        <v>1.7522028585572249E-4</v>
       </c>
       <c r="P13">
-        <v>2.418548377034405E-2</v>
+        <v>1.6795474840516702E-4</v>
       </c>
       <c r="Q13">
-        <v>2.333437932748535E-2</v>
+        <v>1.6204430088531492E-4</v>
       </c>
       <c r="R13">
-        <v>2.2846140659660112E-2</v>
+        <v>1.5865375458097301E-4</v>
       </c>
       <c r="S13">
-        <v>2.2193084738341962E-2</v>
+        <v>1.5411864401626362E-4</v>
       </c>
       <c r="T13">
-        <v>2.160178639849477E-2</v>
+        <v>1.5001240554510256E-4</v>
       </c>
       <c r="U13">
-        <v>2.1039141043938128E-2</v>
+        <v>1.4610514613845921E-4</v>
       </c>
       <c r="V13">
-        <v>2.0494100082479025E-2</v>
+        <v>1.4232013946165989E-4</v>
       </c>
       <c r="W13">
-        <v>1.9963662044203571E-2</v>
+        <v>1.386365419736359E-4</v>
       </c>
       <c r="X13">
-        <v>1.945747602727798E-2</v>
+        <v>1.3512136130054152E-4</v>
       </c>
       <c r="Y13">
-        <v>1.896389452943267E-2</v>
+        <v>1.316937120099491E-4</v>
       </c>
       <c r="Z13">
-        <v>1.848851483503125E-2</v>
+        <v>1.2839246413216146E-4</v>
       </c>
       <c r="AA13">
-        <v>1.802728644126441E-2</v>
+        <v>1.251894891754473E-4</v>
       </c>
       <c r="AB13">
-        <v>1.7579912311896234E-2</v>
+        <v>1.2208272438816829E-4</v>
       </c>
       <c r="AC13">
-        <v>1.7145640405015396E-2</v>
+        <v>1.1906694725705136E-4</v>
       </c>
       <c r="AD13">
-        <v>1.6723970288872583E-2</v>
+        <v>1.1613868256161516E-4</v>
       </c>
       <c r="AE13">
-        <v>1.6314502930677398E-2</v>
+        <v>1.1329515924081527E-4</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B14">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C14">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D14">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E14">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F14">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G14">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H14">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I14">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J14">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K14">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L14">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M14">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N14">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O14">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P14">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q14">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R14">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S14">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T14">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U14">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V14">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W14">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X14">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y14">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z14">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA14">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB14">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC14">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD14">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE14">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B15">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C15">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D15">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E15">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F15">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G15">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H15">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I15">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J15">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K15">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L15">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M15">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N15">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O15">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P15">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q15">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R15">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S15">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T15">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U15">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V15">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W15">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X15">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y15">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z15">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA15">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB15">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC15">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD15">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE15">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B16">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C16">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D16">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E16">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F16">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G16">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H16">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I16">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J16">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K16">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L16">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M16">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N16">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O16">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P16">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q16">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R16">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S16">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T16">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U16">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V16">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W16">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X16">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y16">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z16">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA16">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB16">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC16">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD16">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE16">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B17">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C17">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D17">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E17">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F17">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G17">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H17">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I17">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J17">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K17">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L17">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M17">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N17">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O17">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P17">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q17">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R17">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S17">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T17">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U17">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V17">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W17">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X17">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y17">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z17">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA17">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB17">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC17">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD17">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE17">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B18">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C18">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D18">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E18">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F18">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G18">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H18">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I18">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J18">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K18">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L18">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M18">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N18">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O18">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P18">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q18">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R18">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S18">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T18">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U18">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V18">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W18">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X18">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y18">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z18">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA18">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB18">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC18">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD18">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE18">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B19">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C19">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D19">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E19">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F19">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G19">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H19">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I19">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J19">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K19">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L19">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M19">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N19">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O19">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P19">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q19">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R19">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S19">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T19">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U19">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V19">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W19">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X19">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y19">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z19">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA19">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB19">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC19">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD19">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE19">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B20">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C20">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D20">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E20">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F20">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G20">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H20">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I20">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J20">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K20">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L20">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M20">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N20">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O20">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P20">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q20">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R20">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S20">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T20">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U20">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V20">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W20">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X20">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y20">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z20">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA20">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB20">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC20">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD20">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE20">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B21">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C21">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D21">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E21">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F21">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G21">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H21">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I21">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J21">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K21">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L21">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M21">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N21">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O21">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P21">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q21">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R21">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S21">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T21">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U21">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V21">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W21">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X21">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y21">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z21">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA21">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB21">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC21">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD21">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE21">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B22">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C22">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D22">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E22">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F22">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G22">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H22">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I22">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J22">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K22">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L22">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M22">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N22">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O22">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P22">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q22">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R22">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S22">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T22">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U22">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V22">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W22">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X22">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y22">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z22">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA22">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB22">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC22">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD22">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE22">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B23">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C23">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D23">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E23">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F23">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G23">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H23">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I23">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J23">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K23">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L23">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M23">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N23">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O23">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P23">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q23">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R23">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S23">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T23">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U23">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V23">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W23">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X23">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y23">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z23">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA23">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB23">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC23">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD23">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE23">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B24">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C24">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D24">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E24">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F24">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G24">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H24">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I24">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J24">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K24">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L24">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M24">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N24">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O24">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P24">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q24">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R24">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S24">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T24">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U24">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V24">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W24">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X24">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y24">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z24">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA24">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB24">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC24">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD24">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE24">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1.1381639875820185E-3</v>
+        <v>9.4846998965168215E-5</v>
       </c>
       <c r="B25">
-        <v>1.2058013730060313E-3</v>
+        <v>1.004834477505026E-4</v>
       </c>
       <c r="C25">
-        <v>1.2456909215968594E-3</v>
+        <v>1.0380757679973828E-4</v>
       </c>
       <c r="D25">
-        <v>1.2588961360426036E-3</v>
+        <v>1.0490801133688364E-4</v>
       </c>
       <c r="E25">
-        <v>1.2579388023013967E-3</v>
+        <v>1.0482823352511639E-4</v>
       </c>
       <c r="F25">
-        <v>1.1868298440147155E-3</v>
+        <v>9.8902487001226288E-5</v>
       </c>
       <c r="G25">
-        <v>1.1118148640834366E-3</v>
+        <v>9.2651238673619718E-5</v>
       </c>
       <c r="H25">
-        <v>1.024237084031416E-3</v>
+        <v>8.5353090335951333E-5</v>
       </c>
       <c r="I25">
-        <v>9.2144012743278333E-4</v>
+        <v>7.6786677286065278E-5</v>
       </c>
       <c r="J25">
-        <v>7.4811644539633923E-4</v>
+        <v>6.2343037116361602E-5</v>
       </c>
       <c r="K25">
-        <v>5.7966222434320351E-4</v>
+        <v>4.8305185361933626E-5</v>
       </c>
       <c r="L25">
-        <v>4.8841725263596987E-4</v>
+        <v>4.0701437719664153E-5</v>
       </c>
       <c r="M25">
-        <v>4.4509420465457328E-4</v>
+        <v>3.7091183721214438E-5</v>
       </c>
       <c r="N25">
-        <v>4.2340093989701942E-4</v>
+        <v>3.5283411658084954E-5</v>
       </c>
       <c r="O25">
-        <v>4.0190091625233107E-4</v>
+        <v>3.3491743021027587E-5</v>
       </c>
       <c r="P25">
-        <v>3.7926785986600541E-4</v>
+        <v>3.1605654988833786E-5</v>
       </c>
       <c r="Q25">
-        <v>3.6311306446790972E-4</v>
+        <v>3.0259422038992478E-5</v>
       </c>
       <c r="R25">
-        <v>3.5329300335720505E-4</v>
+        <v>2.944108361310042E-5</v>
       </c>
       <c r="S25">
-        <v>3.4115308292131306E-4</v>
+        <v>2.842942357677609E-5</v>
       </c>
       <c r="T25">
-        <v>3.3478004164463914E-4</v>
+        <v>2.789833680371993E-5</v>
       </c>
       <c r="U25">
-        <v>3.2751078684833414E-4</v>
+        <v>2.7292565570694511E-5</v>
       </c>
       <c r="V25">
-        <v>3.2019852388183369E-4</v>
+        <v>2.6683210323486141E-5</v>
       </c>
       <c r="W25">
-        <v>3.125045839656462E-4</v>
+        <v>2.6042048663803851E-5</v>
       </c>
       <c r="X25">
-        <v>3.0585389176787892E-4</v>
+        <v>2.5487824313989908E-5</v>
       </c>
       <c r="Y25">
-        <v>2.9927773625563109E-4</v>
+        <v>2.4939811354635925E-5</v>
       </c>
       <c r="Z25">
-        <v>2.9319112012272372E-4</v>
+        <v>2.4432593343560309E-5</v>
       </c>
       <c r="AA25">
-        <v>2.8727487773910418E-4</v>
+        <v>2.3939573144925348E-5</v>
       </c>
       <c r="AB25">
-        <v>2.8155066210914864E-4</v>
+        <v>2.3462555175762387E-5</v>
       </c>
       <c r="AC25">
-        <v>2.7600391685604191E-4</v>
+        <v>2.3000326404670158E-5</v>
       </c>
       <c r="AD25">
-        <v>2.7062961041248747E-4</v>
+        <v>2.2552467534373955E-5</v>
       </c>
       <c r="AE25">
-        <v>2.6542112849718333E-4</v>
+        <v>2.2118427374765278E-5</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B26">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C26">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D26">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E26">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F26">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G26">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H26">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I26">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J26">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K26">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L26">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M26">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N26">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O26">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P26">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q26">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R26">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S26">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T26">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U26">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V26">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W26">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X26">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y26">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z26">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA26">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB26">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC26">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD26">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE26">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B27">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C27">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D27">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E27">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F27">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G27">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H27">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I27">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J27">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K27">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L27">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M27">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N27">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O27">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P27">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q27">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R27">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S27">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T27">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U27">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V27">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W27">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X27">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y27">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z27">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA27">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB27">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC27">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD27">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE27">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B28">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C28">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D28">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E28">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F28">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G28">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H28">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I28">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J28">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K28">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L28">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M28">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N28">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O28">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P28">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q28">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R28">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S28">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T28">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U28">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V28">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W28">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X28">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y28">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z28">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA28">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB28">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC28">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD28">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE28">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B29">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C29">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D29">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E29">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F29">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G29">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H29">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I29">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J29">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K29">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L29">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M29">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N29">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O29">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P29">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q29">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R29">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S29">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T29">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U29">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V29">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W29">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X29">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y29">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z29">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA29">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB29">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC29">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD29">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE29">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B30">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C30">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D30">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E30">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F30">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G30">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H30">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I30">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J30">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K30">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L30">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M30">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N30">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O30">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P30">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q30">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R30">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S30">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T30">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U30">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V30">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W30">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X30">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y30">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z30">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA30">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB30">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC30">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD30">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE30">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B31">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C31">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D31">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E31">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F31">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G31">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H31">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I31">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J31">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K31">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L31">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M31">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N31">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O31">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P31">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q31">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R31">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S31">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T31">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U31">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V31">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W31">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X31">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y31">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z31">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA31">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB31">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC31">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD31">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE31">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B32">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C32">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D32">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E32">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F32">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G32">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H32">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I32">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J32">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K32">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L32">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M32">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N32">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O32">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P32">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q32">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R32">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S32">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T32">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U32">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V32">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W32">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X32">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y32">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z32">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA32">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB32">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC32">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD32">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE32">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B33">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C33">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D33">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E33">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F33">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G33">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H33">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I33">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J33">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K33">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L33">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M33">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N33">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O33">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P33">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q33">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R33">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S33">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T33">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U33">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V33">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W33">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X33">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y33">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z33">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA33">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB33">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC33">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD33">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE33">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B34">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C34">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D34">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E34">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F34">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G34">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H34">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I34">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J34">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K34">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L34">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M34">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N34">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O34">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P34">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q34">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R34">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S34">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T34">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U34">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V34">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W34">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X34">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y34">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z34">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA34">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB34">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC34">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD34">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE34">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B35">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C35">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D35">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E35">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F35">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G35">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H35">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I35">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J35">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K35">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L35">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M35">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N35">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O35">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P35">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q35">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R35">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S35">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T35">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U35">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V35">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W35">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X35">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y35">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z35">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA35">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB35">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC35">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD35">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE35">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B36">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C36">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D36">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E36">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F36">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G36">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H36">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I36">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J36">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K36">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L36">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M36">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N36">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O36">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P36">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q36">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R36">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S36">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T36">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U36">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V36">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W36">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X36">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y36">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z36">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA36">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB36">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC36">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD36">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE36">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>5.0695927133338119E-4</v>
+        <v>4.2246605944448435E-5</v>
       </c>
       <c r="B37">
-        <v>5.340907082959182E-4</v>
+        <v>4.4507559024659848E-5</v>
       </c>
       <c r="C37">
-        <v>5.5075402952973541E-4</v>
+        <v>4.5896169127477948E-5</v>
       </c>
       <c r="D37">
-        <v>5.5986942392032295E-4</v>
+        <v>4.6655785326693581E-5</v>
       </c>
       <c r="E37">
-        <v>5.6923028930991424E-4</v>
+        <v>4.7435857442492851E-5</v>
       </c>
       <c r="F37">
-        <v>5.3910577361968286E-4</v>
+        <v>4.4925481134973572E-5</v>
       </c>
       <c r="G37">
-        <v>5.0598929905344594E-4</v>
+        <v>4.2165774921120498E-5</v>
       </c>
       <c r="H37">
-        <v>4.836066455122304E-4</v>
+        <v>4.0300553792685866E-5</v>
       </c>
       <c r="I37">
-        <v>4.5559367804821568E-4</v>
+        <v>3.7966139837351309E-5</v>
       </c>
       <c r="J37">
-        <v>3.9096083957427841E-4</v>
+        <v>3.2580069964523199E-5</v>
       </c>
       <c r="K37">
-        <v>3.2210947428098303E-4</v>
+        <v>2.6842456190081921E-5</v>
       </c>
       <c r="L37">
-        <v>2.8124517560896314E-4</v>
+        <v>2.3437097967413596E-5</v>
       </c>
       <c r="M37">
-        <v>2.5171540948240064E-4</v>
+        <v>2.0976284123533386E-5</v>
       </c>
       <c r="N37">
-        <v>2.3499769853443624E-4</v>
+        <v>1.9583141544536354E-5</v>
       </c>
       <c r="O37">
-        <v>2.2441102446059692E-4</v>
+        <v>1.8700918705049742E-5</v>
       </c>
       <c r="P37">
-        <v>2.1292342920057781E-4</v>
+        <v>1.774361910004815E-5</v>
       </c>
       <c r="Q37">
-        <v>2.0329672667989792E-4</v>
+        <v>1.6941393889991495E-5</v>
       </c>
       <c r="R37">
-        <v>1.9577960075154233E-4</v>
+        <v>1.6314966729295194E-5</v>
       </c>
       <c r="S37">
-        <v>1.8923715691867592E-4</v>
+        <v>1.5769763076556327E-5</v>
       </c>
       <c r="T37">
-        <v>1.8120544047424295E-4</v>
+        <v>1.5100453372853578E-5</v>
       </c>
       <c r="U37">
-        <v>1.7671195115815061E-4</v>
+        <v>1.4725995929845884E-5</v>
       </c>
       <c r="V37">
-        <v>1.7136030252127912E-4</v>
+        <v>1.4280025210106593E-5</v>
       </c>
       <c r="W37">
-        <v>1.655706812691125E-4</v>
+        <v>1.3797556772426041E-5</v>
       </c>
       <c r="X37">
-        <v>1.6035727006418247E-4</v>
+        <v>1.3363105838681873E-5</v>
       </c>
       <c r="Y37">
-        <v>1.553192136394903E-4</v>
+        <v>1.2943267803290858E-5</v>
       </c>
       <c r="Z37">
-        <v>1.5055820740904333E-4</v>
+        <v>1.2546517284086943E-5</v>
       </c>
       <c r="AA37">
-        <v>1.4596173213368317E-4</v>
+        <v>1.216347767780693E-5</v>
       </c>
       <c r="AB37">
-        <v>1.4150814702897598E-4</v>
+        <v>1.1792345585747998E-5</v>
       </c>
       <c r="AC37">
-        <v>1.3719242531505548E-4</v>
+        <v>1.1432702109587958E-5</v>
       </c>
       <c r="AD37">
-        <v>1.3301084208430488E-4</v>
+        <v>1.1084236840358739E-5</v>
       </c>
       <c r="AE37">
-        <v>1.2895797087058661E-4</v>
+        <v>1.0746497572548885E-5</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B38">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C38">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D38">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E38">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F38">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G38">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H38">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I38">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J38">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K38">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L38">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M38">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N38">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O38">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P38">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q38">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R38">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S38">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T38">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U38">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V38">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W38">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X38">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y38">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z38">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA38">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB38">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC38">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD38">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE38">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B39">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C39">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D39">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E39">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F39">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G39">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H39">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I39">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J39">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K39">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L39">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M39">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N39">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O39">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P39">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q39">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R39">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S39">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T39">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U39">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V39">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W39">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X39">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y39">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z39">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA39">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB39">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC39">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD39">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE39">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B40">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C40">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D40">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E40">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F40">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G40">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H40">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I40">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J40">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K40">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L40">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M40">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N40">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O40">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P40">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q40">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R40">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S40">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T40">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U40">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V40">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W40">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X40">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y40">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z40">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA40">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB40">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC40">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD40">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE40">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B41">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C41">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D41">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E41">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F41">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G41">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H41">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I41">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J41">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K41">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L41">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M41">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N41">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O41">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P41">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q41">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R41">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S41">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T41">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U41">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V41">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W41">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X41">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y41">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z41">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA41">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB41">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC41">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD41">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE41">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B42">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C42">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D42">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E42">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F42">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G42">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H42">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I42">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J42">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K42">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L42">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M42">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N42">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O42">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P42">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q42">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R42">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S42">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T42">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U42">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V42">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W42">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X42">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y42">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z42">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA42">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB42">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC42">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD42">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE42">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B43">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C43">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D43">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E43">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F43">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G43">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H43">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I43">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J43">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K43">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L43">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M43">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N43">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O43">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P43">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q43">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R43">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S43">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T43">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U43">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V43">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W43">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X43">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y43">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z43">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA43">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB43">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC43">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD43">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE43">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B44">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C44">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D44">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E44">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F44">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G44">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H44">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I44">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J44">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K44">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L44">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M44">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N44">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O44">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P44">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q44">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R44">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S44">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T44">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U44">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V44">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W44">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X44">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y44">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z44">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA44">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB44">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC44">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD44">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE44">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B45">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C45">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D45">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E45">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F45">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G45">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H45">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I45">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J45">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K45">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L45">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M45">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N45">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O45">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P45">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q45">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R45">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S45">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T45">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U45">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V45">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W45">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X45">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y45">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z45">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA45">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB45">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC45">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD45">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE45">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B46">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C46">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D46">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E46">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F46">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G46">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H46">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I46">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J46">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K46">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L46">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M46">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N46">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O46">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P46">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q46">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R46">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S46">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T46">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U46">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V46">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W46">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X46">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y46">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z46">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA46">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB46">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC46">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD46">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE46">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B47">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C47">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D47">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E47">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F47">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G47">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H47">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I47">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J47">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K47">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L47">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M47">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N47">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O47">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P47">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q47">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R47">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S47">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T47">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U47">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V47">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W47">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X47">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y47">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z47">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA47">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB47">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC47">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD47">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE47">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B48">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C48">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D48">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E48">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F48">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G48">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H48">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I48">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J48">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K48">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L48">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M48">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N48">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O48">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P48">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q48">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R48">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S48">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T48">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U48">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V48">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W48">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X48">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y48">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z48">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA48">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB48">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC48">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD48">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE48">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>3.2913738736277382E-4</v>
+        <v>2.7428115613564484E-5</v>
       </c>
       <c r="B49">
-        <v>3.4422632921083627E-4</v>
+        <v>2.8685527434236355E-5</v>
       </c>
       <c r="C49">
-        <v>3.5357279221430118E-4</v>
+        <v>2.9464399351191765E-5</v>
       </c>
       <c r="D49">
-        <v>3.5959679677049074E-4</v>
+        <v>2.9966399730874229E-5</v>
       </c>
       <c r="E49">
-        <v>3.6747982158814098E-4</v>
+        <v>3.0623318465678417E-5</v>
       </c>
       <c r="F49">
-        <v>3.5282368006228767E-4</v>
+        <v>2.9401973338523972E-5</v>
       </c>
       <c r="G49">
-        <v>3.2970585115922585E-4</v>
+        <v>2.7475487596602153E-5</v>
       </c>
       <c r="H49">
-        <v>3.1418406729904737E-4</v>
+        <v>2.6182005608253947E-5</v>
       </c>
       <c r="I49">
-        <v>3.0418432462960384E-4</v>
+        <v>2.5348693719133653E-5</v>
       </c>
       <c r="J49">
-        <v>2.7184724947684492E-4</v>
+        <v>2.2653937456403742E-5</v>
       </c>
       <c r="K49">
-        <v>2.3116907942182365E-4</v>
+        <v>1.9264089951818638E-5</v>
       </c>
       <c r="L49">
-        <v>2.0796383415539821E-4</v>
+        <v>1.7330319512949852E-5</v>
       </c>
       <c r="M49">
-        <v>1.9075356996642223E-4</v>
+        <v>1.5896130830535185E-5</v>
       </c>
       <c r="N49">
-        <v>1.7637116724001487E-4</v>
+        <v>1.4697597270001239E-5</v>
       </c>
       <c r="O49">
-        <v>1.6719358624321968E-4</v>
+        <v>1.393279885360164E-5</v>
       </c>
       <c r="P49">
-        <v>1.5991122432244348E-4</v>
+        <v>1.3325935360203623E-5</v>
       </c>
       <c r="Q49">
-        <v>1.5359757657887544E-4</v>
+        <v>1.2799798048239619E-5</v>
       </c>
       <c r="R49">
-        <v>1.4831014288977526E-4</v>
+        <v>1.2359178574147937E-5</v>
       </c>
       <c r="S49">
-        <v>1.4317901081413751E-4</v>
+        <v>1.193158423451146E-5</v>
       </c>
       <c r="T49">
-        <v>1.3839718838418023E-4</v>
+        <v>1.1533099032015018E-5</v>
       </c>
       <c r="U49">
-        <v>1.3283199792317471E-4</v>
+        <v>1.1069333160264559E-5</v>
       </c>
       <c r="V49">
-        <v>1.2971995518643668E-4</v>
+        <v>1.080999626553639E-5</v>
       </c>
       <c r="W49">
-        <v>1.254794330296472E-4</v>
+        <v>1.0456619419137267E-5</v>
       </c>
       <c r="X49">
-        <v>1.2146929825075044E-4</v>
+        <v>1.0122441520895871E-5</v>
       </c>
       <c r="Y49">
-        <v>1.1766499741014016E-4</v>
+        <v>9.805416450845014E-6</v>
       </c>
       <c r="Z49">
-        <v>1.140577489167718E-4</v>
+        <v>9.504812409730984E-6</v>
       </c>
       <c r="AA49">
-        <v>1.1057757246160286E-4</v>
+        <v>9.2147977051335719E-6</v>
       </c>
       <c r="AB49">
-        <v>1.0722029737491853E-4</v>
+        <v>8.9350247812432111E-6</v>
       </c>
       <c r="AC49">
-        <v>1.0396926477402835E-4</v>
+        <v>8.664105397835696E-6</v>
       </c>
       <c r="AD49">
-        <v>1.0081988089821131E-4</v>
+        <v>8.4016567415176083E-6</v>
       </c>
       <c r="AE49">
-        <v>9.7767997206681597E-5</v>
+        <v>8.1473331005567998E-6</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
@@ -22854,7 +22855,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AE109 AG7:AH7">
+  <conditionalFormatting sqref="A2:AE109 AG7:AH7 AG4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/parameters/inputs_RubellaBaseline.xlsx
+++ b/parameters/inputs_RubellaBaseline.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheetalsilal/Git/RubellaNew/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CE4D4F-4FC9-6646-A479-5048EF43C309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CE45A-0CFE-F745-81C9-7AD8EE2BC1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="singles" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="v" sheetId="6" r:id="rId7"/>
     <sheet name="contact" sheetId="4" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -195,6 +198,575 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="universal"/>
+      <sheetName val="Transitions"/>
+      <sheetName val="Age"/>
+      <sheetName val="Births"/>
+      <sheetName val="Death"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="contact"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="D2">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="D5">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="D8">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="D29">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>12.166666666666666</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="D51">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="D58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="D62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="D70">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="D71">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="D73">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="D74">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="D75">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="D76">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="D77">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="D78">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="D79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="D80">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="D81">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="D82">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="D83">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="D84">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="D85">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="D86">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="D87">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="D89">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="D90">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="D91">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="D92">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="D93">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="D94">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="D95">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="D96">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="D97">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="D98">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="D99">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="D100">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="D101">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="D102">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="D103">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="D104">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="D105">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="D106">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="D107">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="D108">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="D109">
+            <v>0.1</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,8 +1135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B2701-AD49-D043-B00B-058E17252513}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,8 +1154,8 @@
         <v>0.61325897654549877</v>
       </c>
       <c r="B2" s="2">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D2</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,8 +1163,8 @@
         <v>0.85043138077736491</v>
       </c>
       <c r="B3" s="2">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D3</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -600,8 +1172,8 @@
         <v>0.94215567912516152</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B49" si="0">1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D4</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -609,8 +1181,8 @@
         <v>0.97762922814383435</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D5</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -618,8 +1190,8 @@
         <v>0.99134830479687941</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D6</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,8 +1199,8 @@
         <v>0.99665403454252877</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D7</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -636,8 +1208,8 @@
         <v>0.99870597789453419</v>
       </c>
       <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D8</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -645,8 +1217,8 @@
         <v>0.99949954856655943</v>
       </c>
       <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D9</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -654,8 +1226,8 @@
         <v>0.99980645490044195</v>
       </c>
       <c r="B10" s="2">
-        <f>1/30</f>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D10</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -663,8 +1235,8 @@
         <v>0.99992514817011235</v>
       </c>
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D11</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -672,8 +1244,8 @@
         <v>0.99997105172670175</v>
       </c>
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D12</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -681,8 +1253,8 @@
         <v>0.99998880451515737</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D13</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -690,8 +1262,8 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D14</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,8 +1271,8 @@
         <v>1</v>
       </c>
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D15</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -708,8 +1280,8 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D16</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,8 +1289,8 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D17</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -726,8 +1298,8 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D18</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -735,8 +1307,8 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D19</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -744,8 +1316,8 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D20</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -753,8 +1325,8 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D21</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -762,8 +1334,8 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D22</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,8 +1343,8 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D23</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -780,8 +1352,8 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D24</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -789,8 +1361,8 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D25</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -798,8 +1370,8 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D26</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -807,8 +1379,8 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D27</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -816,8 +1388,8 @@
         <v>1</v>
       </c>
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D28</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -825,8 +1397,8 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D29</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -834,8 +1406,8 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D30</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -843,8 +1415,8 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D31</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -852,8 +1424,8 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D32</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -861,8 +1433,8 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D33</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -870,8 +1442,8 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D34</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -879,8 +1451,8 @@
         <v>1</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D35</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -888,8 +1460,8 @@
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D36</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -897,8 +1469,8 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D37</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -906,8 +1478,8 @@
         <v>1</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D38</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -915,8 +1487,8 @@
         <v>1</v>
       </c>
       <c r="B39" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D39</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -924,8 +1496,8 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D40</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -933,8 +1505,8 @@
         <v>1</v>
       </c>
       <c r="B41" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D41</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -942,8 +1514,8 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D42</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -951,8 +1523,8 @@
         <v>1</v>
       </c>
       <c r="B43" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D43</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -960,8 +1532,8 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D44</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -969,8 +1541,8 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D45</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -978,8 +1550,8 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D46</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,8 +1559,8 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D47</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,8 +1568,8 @@
         <v>1</v>
       </c>
       <c r="B48" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D48</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -1005,8 +1577,8 @@
         <v>1</v>
       </c>
       <c r="B49" s="2">
-        <f t="shared" si="0"/>
-        <v>3.3333333333333333E-2</v>
+        <f>[1]Age!$D49</f>
+        <v>12.166666666666666</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1014,8 +1586,8 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <f>1/365</f>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D50</f>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -1023,8 +1595,8 @@
         <v>1</v>
       </c>
       <c r="B51" s="2">
-        <f t="shared" ref="B51:B105" si="1">1/365</f>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D51</f>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,8 +1604,8 @@
         <v>1</v>
       </c>
       <c r="B52" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D52</f>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -1041,8 +1613,8 @@
         <v>1</v>
       </c>
       <c r="B53" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D53</f>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1050,8 +1622,8 @@
         <v>1</v>
       </c>
       <c r="B54" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D54</f>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,8 +1631,8 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D55</f>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1068,8 +1640,8 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D56</f>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,8 +1649,8 @@
         <v>1</v>
       </c>
       <c r="B57" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D57</f>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1086,8 +1658,8 @@
         <v>1</v>
       </c>
       <c r="B58" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D58</f>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -1095,8 +1667,8 @@
         <v>1</v>
       </c>
       <c r="B59" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D59</f>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -1104,8 +1676,8 @@
         <v>1</v>
       </c>
       <c r="B60" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D60</f>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1113,8 +1685,8 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D61</f>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -1122,8 +1694,8 @@
         <v>1</v>
       </c>
       <c r="B62" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D62</f>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,8 +1703,8 @@
         <v>1</v>
       </c>
       <c r="B63" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D63</f>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -1140,8 +1712,8 @@
         <v>1</v>
       </c>
       <c r="B64" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D64</f>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -1149,8 +1721,8 @@
         <v>1</v>
       </c>
       <c r="B65" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D65</f>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -1158,8 +1730,8 @@
         <v>1</v>
       </c>
       <c r="B66" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D66</f>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -1167,8 +1739,8 @@
         <v>1</v>
       </c>
       <c r="B67" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D67</f>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -1176,8 +1748,8 @@
         <v>1</v>
       </c>
       <c r="B68" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D68</f>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -1185,8 +1757,8 @@
         <v>1</v>
       </c>
       <c r="B69" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D69</f>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -1194,8 +1766,8 @@
         <v>1</v>
       </c>
       <c r="B70" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D70</f>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,8 +1775,8 @@
         <v>1</v>
       </c>
       <c r="B71" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D71</f>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -1212,8 +1784,8 @@
         <v>1</v>
       </c>
       <c r="B72" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D72</f>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -1221,8 +1793,8 @@
         <v>1</v>
       </c>
       <c r="B73" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D73</f>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -1230,8 +1802,8 @@
         <v>1</v>
       </c>
       <c r="B74" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D74</f>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -1239,8 +1811,8 @@
         <v>1</v>
       </c>
       <c r="B75" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D75</f>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -1248,8 +1820,8 @@
         <v>1</v>
       </c>
       <c r="B76" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D76</f>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1257,8 +1829,8 @@
         <v>1</v>
       </c>
       <c r="B77" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D77</f>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1266,8 +1838,8 @@
         <v>1</v>
       </c>
       <c r="B78" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D78</f>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,8 +1847,8 @@
         <v>1</v>
       </c>
       <c r="B79" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D79</f>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1284,8 +1856,8 @@
         <v>1</v>
       </c>
       <c r="B80" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D80</f>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1293,8 +1865,8 @@
         <v>1</v>
       </c>
       <c r="B81" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D81</f>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1302,8 +1874,8 @@
         <v>1</v>
       </c>
       <c r="B82" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D82</f>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1311,8 +1883,8 @@
         <v>1</v>
       </c>
       <c r="B83" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D83</f>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1320,8 +1892,8 @@
         <v>1</v>
       </c>
       <c r="B84" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D84</f>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1329,8 +1901,8 @@
         <v>1</v>
       </c>
       <c r="B85" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D85</f>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1338,8 +1910,8 @@
         <v>1</v>
       </c>
       <c r="B86" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D86</f>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,8 +1919,8 @@
         <v>1</v>
       </c>
       <c r="B87" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D87</f>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1356,8 +1928,8 @@
         <v>1</v>
       </c>
       <c r="B88" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D88</f>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1365,8 +1937,8 @@
         <v>1</v>
       </c>
       <c r="B89" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D89</f>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1374,8 +1946,8 @@
         <v>1</v>
       </c>
       <c r="B90" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D90</f>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1383,8 +1955,8 @@
         <v>1</v>
       </c>
       <c r="B91" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D91</f>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1392,8 +1964,8 @@
         <v>1</v>
       </c>
       <c r="B92" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D92</f>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1401,8 +1973,8 @@
         <v>1</v>
       </c>
       <c r="B93" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D93</f>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1410,8 +1982,8 @@
         <v>1</v>
       </c>
       <c r="B94" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D94</f>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,8 +1991,8 @@
         <v>1</v>
       </c>
       <c r="B95" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D95</f>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1428,8 +2000,8 @@
         <v>1</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D96</f>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1437,8 +2009,8 @@
         <v>1</v>
       </c>
       <c r="B97" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D97</f>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1446,8 +2018,8 @@
         <v>1</v>
       </c>
       <c r="B98" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D98</f>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1455,8 +2027,8 @@
         <v>1</v>
       </c>
       <c r="B99" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D99</f>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1464,8 +2036,8 @@
         <v>1</v>
       </c>
       <c r="B100" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D100</f>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1473,8 +2045,8 @@
         <v>1</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D101</f>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1482,8 +2054,8 @@
         <v>1</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D102</f>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,8 +2063,8 @@
         <v>1</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D103</f>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1500,8 +2072,8 @@
         <v>1</v>
       </c>
       <c r="B104" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D104</f>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1509,8 +2081,8 @@
         <v>1</v>
       </c>
       <c r="B105" s="2">
-        <f t="shared" si="1"/>
-        <v>2.7397260273972603E-3</v>
+        <f>[1]Age!$D105</f>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1518,8 +2090,8 @@
         <v>1</v>
       </c>
       <c r="B106" s="2">
-        <f>1/3650</f>
-        <v>2.7397260273972601E-4</v>
+        <f>[1]Age!$D106</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1527,8 +2099,8 @@
         <v>1</v>
       </c>
       <c r="B107" s="2">
-        <f t="shared" ref="B107:B109" si="2">1/3650</f>
-        <v>2.7397260273972601E-4</v>
+        <f>[1]Age!$D107</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1536,8 +2108,8 @@
         <v>1</v>
       </c>
       <c r="B108" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7397260273972601E-4</v>
+        <f>[1]Age!$D108</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1545,8 +2117,8 @@
         <v>1</v>
       </c>
       <c r="B109" s="2">
-        <f t="shared" si="2"/>
-        <v>2.7397260273972601E-4</v>
+        <f>[1]Age!$D109</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -12493,7 +13065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B76FC-0A1C-AF49-BE56-AA8CBAA2EE6D}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+    <sheetView zoomScale="50" workbookViewId="0">
       <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>

--- a/parameters/inputs_RubellaBaseline.xlsx
+++ b/parameters/inputs_RubellaBaseline.xlsx
@@ -5,27 +5,27 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sheetalsilal/Git/RubellaNew/parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taahir/Downloads/RubellaNew/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0CE45A-0CFE-F745-81C9-7AD8EE2BC1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6829FD00-2219-B44C-A116-E3153168F923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="19980" activeTab="1" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19980" activeTab="4" xr2:uid="{82E5A0E1-DDDF-6D48-A837-0428A0AAFC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="singles" sheetId="1" r:id="rId1"/>
     <sheet name="vecAge" sheetId="2" r:id="rId2"/>
     <sheet name="vecTime" sheetId="3" r:id="rId3"/>
-    <sheet name="death_old" sheetId="5" r:id="rId4"/>
+    <sheet name="s_old" sheetId="5" r:id="rId4"/>
     <sheet name="s" sheetId="8" r:id="rId5"/>
-    <sheet name="death_off" sheetId="9" r:id="rId6"/>
+    <sheet name="s_off" sheetId="9" r:id="rId6"/>
     <sheet name="v" sheetId="6" r:id="rId7"/>
     <sheet name="contact" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -97,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ###\ ###\ ##0;\-#\ ###\ ###\ ##0;0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -152,6 +152,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,7 +179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -181,6 +187,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1089,7 +1098,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1135,8 +1144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13B2701-AD49-D043-B00B-058E17252513}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B118" sqref="B118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37BE7B1-1CF0-7944-AB54-F67CBD99664D}">
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2242,97 +2251,97 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>969828</v>
+        <v>1017081</v>
       </c>
       <c r="C2">
-        <v>963390</v>
+        <v>1011545</v>
       </c>
       <c r="D2">
-        <v>954574</v>
+        <v>1004942</v>
       </c>
       <c r="E2">
-        <v>984308</v>
+        <v>1037337</v>
       </c>
       <c r="F2">
-        <v>1031997.0000000001</v>
+        <v>1084498</v>
       </c>
       <c r="G2">
-        <v>1074006</v>
+        <v>1124291</v>
       </c>
       <c r="H2">
-        <v>1111171</v>
+        <v>1157144</v>
       </c>
       <c r="I2">
-        <v>1131070</v>
+        <v>1166581</v>
       </c>
       <c r="J2">
-        <v>1217792</v>
+        <v>1243597</v>
       </c>
       <c r="K2">
-        <v>1158903</v>
+        <v>1178323</v>
       </c>
       <c r="L2">
-        <v>1152671</v>
+        <v>1160896</v>
       </c>
       <c r="M2">
-        <v>1167985</v>
+        <v>1169887</v>
       </c>
       <c r="N2">
-        <v>1187329</v>
+        <v>1189588</v>
       </c>
       <c r="O2">
-        <v>1194069</v>
+        <v>1197126</v>
       </c>
       <c r="P2">
-        <v>1204040</v>
+        <v>1211091</v>
       </c>
       <c r="Q2">
-        <v>1183143</v>
+        <v>1191603</v>
       </c>
       <c r="R2">
-        <v>1151026</v>
+        <v>1160623</v>
       </c>
       <c r="S2">
-        <v>1169583</v>
+        <v>1154876</v>
       </c>
       <c r="T2">
-        <v>1212008</v>
+        <v>1163460</v>
       </c>
       <c r="U2">
-        <v>1235776</v>
+        <v>1173511</v>
       </c>
       <c r="V2">
-        <v>1194619</v>
+        <v>1182285</v>
       </c>
       <c r="W2">
-        <v>1176955</v>
+        <v>1190312</v>
       </c>
       <c r="X2">
-        <v>1176955</v>
+        <v>1190146</v>
       </c>
       <c r="Y2">
-        <v>1176955</v>
-      </c>
-      <c r="Z2">
-        <v>1176955</v>
-      </c>
-      <c r="AA2">
-        <v>1176955</v>
-      </c>
-      <c r="AB2">
-        <v>1176955</v>
-      </c>
-      <c r="AC2">
-        <v>1176955</v>
-      </c>
-      <c r="AD2">
-        <v>1176955</v>
-      </c>
-      <c r="AE2">
-        <v>1176955</v>
-      </c>
-      <c r="AF2">
-        <v>1176955</v>
+        <v>1186793</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>1182869</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>1175749</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>1167803</v>
+      </c>
+      <c r="AC2" s="7">
+        <v>1162164</v>
+      </c>
+      <c r="AD2" s="7">
+        <v>1156824</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>1152475</v>
+      </c>
+      <c r="AF2" s="7">
+        <v>1146101</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
@@ -2662,6 +2671,76 @@
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
     </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="6"/>
+      <c r="AE7" s="6"/>
+      <c r="AF7" s="6"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="6"/>
+      <c r="AE9" s="6"/>
+      <c r="AF9" s="6"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="6"/>
+      <c r="AE10" s="6"/>
+      <c r="AF10" s="6"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="6"/>
+      <c r="AE11" s="6"/>
+      <c r="AF11" s="6"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="6"/>
+      <c r="AE12" s="6"/>
+      <c r="AF12" s="6"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2672,7 +2751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5344F7D0-9D76-E54E-959E-2F2A183F7D97}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13065,11 +13144,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676B76FC-0A1C-AF49-BE56-AA8CBAA2EE6D}">
   <dimension ref="A1:AE109"/>
   <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="AG5" sqref="AG5"/>
+    <sheetView tabSelected="1" zoomScale="60" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="37" max="37" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1">
@@ -13168,4657 +13250,4657 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B2">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C2">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D2">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E2">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F2">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G2">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H2">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I2">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J2">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K2">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L2">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M2">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N2">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O2">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P2">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q2">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R2">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S2">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T2">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U2">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V2">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W2">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X2">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y2">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z2">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA2">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB2">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC2">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD2">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE2">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B3">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C3">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D3">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E3">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F3">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G3">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H3">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I3">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J3">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K3">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L3">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M3">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N3">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O3">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P3">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q3">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R3">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S3">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T3">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U3">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V3">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W3">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X3">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y3">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z3">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA3">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB3">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC3">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD3">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE3">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B4">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C4">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D4">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E4">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F4">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G4">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H4">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I4">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J4">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K4">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L4">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M4">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N4">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O4">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P4">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q4">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R4">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S4">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T4">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U4">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V4">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W4">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X4">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y4">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z4">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA4">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB4">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC4">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD4">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE4">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B5">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C5">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D5">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E5">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F5">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G5">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H5">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I5">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J5">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K5">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L5">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M5">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N5">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O5">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P5">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q5">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R5">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S5">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T5">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U5">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V5">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W5">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X5">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y5">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z5">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA5">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB5">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC5">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD5">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE5">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B6">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C6">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D6">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E6">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F6">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G6">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H6">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I6">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J6">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K6">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L6">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M6">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N6">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O6">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P6">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q6">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R6">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S6">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T6">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U6">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V6">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W6">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X6">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y6">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z6">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA6">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB6">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC6">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD6">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE6">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B7">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C7">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D7">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E7">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F7">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G7">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H7">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I7">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J7">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K7">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L7">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M7">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N7">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O7">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P7">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q7">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R7">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S7">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T7">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U7">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V7">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W7">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X7">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y7">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z7">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA7">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB7">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC7">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD7">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE7">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B8">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C8">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D8">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E8">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F8">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G8">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H8">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I8">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J8">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K8">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L8">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M8">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N8">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O8">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P8">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q8">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R8">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S8">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T8">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U8">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V8">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W8">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X8">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y8">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z8">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA8">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB8">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC8">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD8">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE8">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B9">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C9">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D9">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E9">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F9">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G9">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H9">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I9">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J9">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K9">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L9">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M9">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N9">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O9">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P9">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q9">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R9">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S9">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T9">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U9">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V9">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W9">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X9">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y9">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z9">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA9">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB9">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC9">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD9">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE9">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B10">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C10">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D10">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E10">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F10">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G10">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H10">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I10">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J10">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K10">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L10">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M10">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N10">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O10">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P10">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q10">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R10">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S10">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T10">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U10">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V10">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W10">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X10">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y10">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z10">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA10">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB10">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC10">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD10">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE10">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B11">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C11">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D11">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E11">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F11">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G11">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H11">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I11">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J11">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K11">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L11">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M11">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N11">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O11">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P11">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q11">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R11">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S11">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T11">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U11">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V11">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W11">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X11">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y11">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z11">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA11">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB11">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC11">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD11">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE11">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B12">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C12">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D12">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E12">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F12">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G12">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H12">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I12">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J12">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K12">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L12">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M12">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N12">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O12">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P12">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q12">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R12">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S12">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T12">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U12">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V12">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W12">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X12">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y12">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z12">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA12">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB12">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC12">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD12">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE12">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>3.7168031633379991E-4</v>
+        <v>5.3521965552067188E-2</v>
       </c>
       <c r="B13">
-        <v>3.7221741891361066E-4</v>
+        <v>5.3599308323559941E-2</v>
       </c>
       <c r="C13">
-        <v>3.8151777276850441E-4</v>
+        <v>5.4938559278664631E-2</v>
       </c>
       <c r="D13">
-        <v>3.9292799019574571E-4</v>
+        <v>5.6581630588187382E-2</v>
       </c>
       <c r="E13">
-        <v>3.890904363873313E-4</v>
+        <v>5.6029022839775705E-2</v>
       </c>
       <c r="F13">
-        <v>3.6848127429114306E-4</v>
+        <v>5.3061303497924595E-2</v>
       </c>
       <c r="G13">
-        <v>3.4564210135125975E-4</v>
+        <v>4.9772462594581401E-2</v>
       </c>
       <c r="H13">
-        <v>3.170934024889918E-4</v>
+        <v>4.5661449958414813E-2</v>
       </c>
       <c r="I13">
-        <v>2.8458670194315608E-4</v>
+        <v>4.0980485079814478E-2</v>
       </c>
       <c r="J13">
-        <v>2.4981500598360529E-4</v>
+        <v>3.5973360861639159E-2</v>
       </c>
       <c r="K13">
-        <v>2.2044790202088133E-4</v>
+        <v>3.1744497891006911E-2</v>
       </c>
       <c r="L13">
-        <v>1.9987514091708919E-4</v>
+        <v>2.8782020292060846E-2</v>
       </c>
       <c r="M13">
-        <v>1.9097945007731846E-4</v>
+        <v>2.7501040811133859E-2</v>
       </c>
       <c r="N13">
-        <v>1.8316118776475819E-4</v>
+        <v>2.6375211038125179E-2</v>
       </c>
       <c r="O13">
-        <v>1.7522028585572249E-4</v>
+        <v>2.5231721163224041E-2</v>
       </c>
       <c r="P13">
-        <v>1.6795474840516702E-4</v>
+        <v>2.418548377034405E-2</v>
       </c>
       <c r="Q13">
-        <v>1.6204430088531492E-4</v>
+        <v>2.333437932748535E-2</v>
       </c>
       <c r="R13">
-        <v>1.5865375458097301E-4</v>
+        <v>2.2846140659660112E-2</v>
       </c>
       <c r="S13">
-        <v>1.5411864401626362E-4</v>
+        <v>2.2193084738341962E-2</v>
       </c>
       <c r="T13">
-        <v>1.5001240554510256E-4</v>
+        <v>2.160178639849477E-2</v>
       </c>
       <c r="U13">
-        <v>1.4610514613845921E-4</v>
+        <v>2.1039141043938128E-2</v>
       </c>
       <c r="V13">
-        <v>1.4232013946165989E-4</v>
+        <v>2.0494100082479025E-2</v>
       </c>
       <c r="W13">
-        <v>1.386365419736359E-4</v>
+        <v>1.9963662044203568E-2</v>
       </c>
       <c r="X13">
-        <v>1.3512136130054152E-4</v>
+        <v>1.945747602727798E-2</v>
       </c>
       <c r="Y13">
-        <v>1.316937120099491E-4</v>
+        <v>1.896389452943267E-2</v>
       </c>
       <c r="Z13">
-        <v>1.2839246413216146E-4</v>
+        <v>1.848851483503125E-2</v>
       </c>
       <c r="AA13">
-        <v>1.251894891754473E-4</v>
+        <v>1.802728644126441E-2</v>
       </c>
       <c r="AB13">
-        <v>1.2208272438816829E-4</v>
+        <v>1.7579912311896234E-2</v>
       </c>
       <c r="AC13">
-        <v>1.1906694725705136E-4</v>
+        <v>1.7145640405015396E-2</v>
       </c>
       <c r="AD13">
-        <v>1.1613868256161516E-4</v>
+        <v>1.6723970288872583E-2</v>
       </c>
       <c r="AE13">
-        <v>1.1329515924081527E-4</v>
+        <v>1.6314502930677398E-2</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B14">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C14">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D14">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E14">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F14">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G14">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H14">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I14">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J14">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K14">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L14">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M14">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N14">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O14">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P14">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q14">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R14">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S14">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T14">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U14">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V14">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W14">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X14">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y14">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z14">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA14">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB14">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC14">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD14">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE14">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B15">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C15">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D15">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E15">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F15">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G15">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H15">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I15">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J15">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K15">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L15">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M15">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N15">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O15">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P15">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q15">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R15">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S15">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T15">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U15">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V15">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W15">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X15">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y15">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z15">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA15">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB15">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC15">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD15">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE15">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B16">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C16">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D16">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E16">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F16">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G16">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H16">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I16">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J16">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K16">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L16">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M16">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N16">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O16">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P16">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q16">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R16">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S16">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T16">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U16">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V16">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W16">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X16">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y16">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z16">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA16">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB16">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC16">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD16">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE16">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B17">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C17">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D17">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E17">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F17">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G17">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H17">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I17">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J17">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K17">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L17">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M17">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N17">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O17">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P17">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q17">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R17">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S17">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T17">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U17">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V17">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W17">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X17">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y17">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z17">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA17">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB17">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC17">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD17">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE17">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B18">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C18">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D18">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E18">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F18">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G18">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H18">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I18">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J18">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K18">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L18">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M18">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N18">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O18">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P18">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q18">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R18">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S18">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T18">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U18">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V18">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W18">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X18">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y18">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z18">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA18">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB18">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC18">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD18">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE18">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B19">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C19">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D19">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E19">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F19">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G19">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H19">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I19">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J19">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K19">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L19">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M19">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N19">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O19">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P19">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q19">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R19">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S19">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T19">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U19">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V19">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W19">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X19">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y19">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z19">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA19">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB19">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC19">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD19">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE19">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B20">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C20">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D20">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E20">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F20">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G20">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H20">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I20">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J20">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K20">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L20">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M20">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N20">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O20">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P20">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q20">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R20">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S20">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T20">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U20">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V20">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W20">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X20">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y20">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z20">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA20">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB20">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC20">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD20">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE20">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B21">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C21">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D21">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E21">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F21">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G21">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H21">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I21">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J21">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K21">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L21">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M21">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N21">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O21">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P21">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q21">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R21">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S21">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T21">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U21">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V21">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W21">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X21">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y21">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z21">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA21">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB21">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC21">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD21">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE21">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B22">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C22">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D22">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E22">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F22">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G22">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H22">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I22">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J22">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K22">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L22">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M22">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N22">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O22">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P22">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q22">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R22">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S22">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T22">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U22">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V22">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W22">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X22">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y22">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z22">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA22">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB22">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC22">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD22">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE22">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B23">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C23">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D23">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E23">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F23">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G23">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H23">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I23">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J23">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K23">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L23">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M23">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N23">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O23">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P23">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q23">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R23">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S23">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T23">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U23">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V23">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W23">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X23">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y23">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z23">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA23">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB23">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC23">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD23">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE23">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B24">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C24">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D24">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E24">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F24">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G24">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H24">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I24">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J24">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K24">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L24">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M24">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N24">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O24">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P24">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q24">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R24">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S24">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T24">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U24">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V24">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W24">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X24">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y24">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z24">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA24">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB24">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC24">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD24">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE24">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>9.4846998965168215E-5</v>
+        <v>1.3657967850984222E-2</v>
       </c>
       <c r="B25">
-        <v>1.004834477505026E-4</v>
+        <v>1.4469616476072375E-2</v>
       </c>
       <c r="C25">
-        <v>1.0380757679973828E-4</v>
+        <v>1.4948291059162313E-2</v>
       </c>
       <c r="D25">
-        <v>1.0490801133688364E-4</v>
+        <v>1.5106753632511244E-2</v>
       </c>
       <c r="E25">
-        <v>1.0482823352511639E-4</v>
+        <v>1.5095265627616761E-2</v>
       </c>
       <c r="F25">
-        <v>9.8902487001226288E-5</v>
+        <v>1.4241958128176586E-2</v>
       </c>
       <c r="G25">
-        <v>9.2651238673619718E-5</v>
+        <v>1.3341778369001238E-2</v>
       </c>
       <c r="H25">
-        <v>8.5353090335951333E-5</v>
+        <v>1.2290845008376992E-2</v>
       </c>
       <c r="I25">
-        <v>7.6786677286065278E-5</v>
+        <v>1.10572815291934E-2</v>
       </c>
       <c r="J25">
-        <v>6.2343037116361602E-5</v>
+        <v>8.9773973447560707E-3</v>
       </c>
       <c r="K25">
-        <v>4.8305185361933626E-5</v>
+        <v>6.9559466921184417E-3</v>
       </c>
       <c r="L25">
-        <v>4.0701437719664153E-5</v>
+        <v>5.861007031631638E-3</v>
       </c>
       <c r="M25">
-        <v>3.7091183721214438E-5</v>
+        <v>5.3411304558548794E-3</v>
       </c>
       <c r="N25">
-        <v>3.5283411658084954E-5</v>
+        <v>5.0808112787642332E-3</v>
       </c>
       <c r="O25">
-        <v>3.3491743021027587E-5</v>
+        <v>4.8228109950279718E-3</v>
       </c>
       <c r="P25">
-        <v>3.1605654988833786E-5</v>
+        <v>4.5512143183920649E-3</v>
       </c>
       <c r="Q25">
-        <v>3.0259422038992478E-5</v>
+        <v>4.3573567736149166E-3</v>
       </c>
       <c r="R25">
-        <v>2.944108361310042E-5</v>
+        <v>4.2395160402864604E-3</v>
       </c>
       <c r="S25">
-        <v>2.842942357677609E-5</v>
+        <v>4.0938369950557565E-3</v>
       </c>
       <c r="T25">
-        <v>2.789833680371993E-5</v>
+        <v>4.0173604997356697E-3</v>
       </c>
       <c r="U25">
-        <v>2.7292565570694511E-5</v>
+        <v>3.9301294421800097E-3</v>
       </c>
       <c r="V25">
-        <v>2.6683210323486141E-5</v>
+        <v>3.8423822865820043E-3</v>
       </c>
       <c r="W25">
-        <v>2.6042048663803851E-5</v>
+        <v>3.7500550075877546E-3</v>
       </c>
       <c r="X25">
-        <v>2.5487824313989908E-5</v>
+        <v>3.6702467012145468E-3</v>
       </c>
       <c r="Y25">
-        <v>2.4939811354635925E-5</v>
+        <v>3.5913328350675733E-3</v>
       </c>
       <c r="Z25">
-        <v>2.4432593343560309E-5</v>
+        <v>3.5182934414726844E-3</v>
       </c>
       <c r="AA25">
-        <v>2.3939573144925348E-5</v>
+        <v>3.4472985328692501E-3</v>
       </c>
       <c r="AB25">
-        <v>2.3462555175762387E-5</v>
+        <v>3.3786079453097836E-3</v>
       </c>
       <c r="AC25">
-        <v>2.3000326404670158E-5</v>
+        <v>3.3120470022725028E-3</v>
       </c>
       <c r="AD25">
-        <v>2.2552467534373955E-5</v>
+        <v>3.2475553249498496E-3</v>
       </c>
       <c r="AE25">
-        <v>2.2118427374765278E-5</v>
+        <v>3.1850535419662E-3</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B26">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C26">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D26">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E26">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F26">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G26">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H26">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I26">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J26">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K26">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L26">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M26">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N26">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O26">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P26">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q26">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R26">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S26">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T26">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U26">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V26">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W26">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X26">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y26">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z26">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA26">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB26">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC26">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD26">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE26">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B27">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C27">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D27">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E27">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F27">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G27">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H27">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I27">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J27">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K27">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L27">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M27">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N27">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O27">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P27">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q27">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R27">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S27">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T27">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U27">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V27">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W27">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X27">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y27">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z27">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA27">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB27">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC27">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD27">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE27">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B28">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C28">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D28">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E28">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F28">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G28">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H28">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I28">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J28">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K28">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L28">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M28">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N28">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O28">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P28">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q28">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R28">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S28">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T28">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U28">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V28">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W28">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X28">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y28">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z28">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA28">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB28">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC28">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD28">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE28">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B29">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C29">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D29">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E29">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F29">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G29">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H29">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I29">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J29">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K29">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L29">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M29">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N29">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O29">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P29">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q29">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R29">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S29">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T29">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U29">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V29">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W29">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X29">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y29">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z29">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA29">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB29">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC29">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD29">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE29">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B30">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C30">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D30">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E30">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F30">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G30">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H30">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I30">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J30">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K30">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L30">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M30">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N30">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O30">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P30">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q30">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R30">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S30">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T30">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U30">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V30">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W30">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X30">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y30">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z30">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA30">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB30">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC30">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD30">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE30">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B31">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C31">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D31">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E31">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F31">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G31">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H31">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I31">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J31">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K31">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L31">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M31">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N31">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O31">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P31">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q31">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R31">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S31">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T31">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U31">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V31">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W31">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X31">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y31">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z31">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA31">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB31">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC31">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD31">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE31">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B32">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C32">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D32">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E32">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F32">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G32">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H32">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I32">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J32">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K32">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L32">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M32">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N32">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O32">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P32">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q32">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R32">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S32">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T32">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U32">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V32">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W32">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X32">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y32">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z32">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA32">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB32">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC32">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD32">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE32">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B33">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C33">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D33">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E33">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F33">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G33">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H33">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I33">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J33">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K33">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L33">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M33">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N33">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O33">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P33">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q33">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R33">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S33">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T33">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U33">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V33">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W33">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X33">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y33">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z33">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA33">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB33">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC33">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD33">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE33">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B34">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C34">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D34">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E34">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F34">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G34">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H34">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I34">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J34">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K34">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L34">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M34">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N34">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O34">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P34">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q34">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R34">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S34">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T34">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U34">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V34">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W34">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X34">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y34">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z34">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA34">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB34">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC34">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD34">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE34">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B35">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C35">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D35">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E35">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F35">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G35">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H35">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I35">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J35">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K35">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L35">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M35">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N35">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O35">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P35">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q35">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R35">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S35">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T35">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U35">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V35">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W35">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X35">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y35">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z35">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA35">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB35">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC35">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD35">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE35">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B36">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C36">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D36">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E36">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F36">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G36">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H36">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I36">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J36">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K36">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L36">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M36">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N36">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O36">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P36">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q36">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R36">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S36">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T36">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U36">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V36">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W36">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X36">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y36">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z36">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA36">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB36">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC36">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD36">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE36">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>4.2246605944448435E-5</v>
+        <v>6.0835112560005747E-3</v>
       </c>
       <c r="B37">
-        <v>4.4507559024659848E-5</v>
+        <v>6.4090884995510189E-3</v>
       </c>
       <c r="C37">
-        <v>4.5896169127477948E-5</v>
+        <v>6.6090483543568244E-3</v>
       </c>
       <c r="D37">
-        <v>4.6655785326693581E-5</v>
+        <v>6.7184330870438749E-3</v>
       </c>
       <c r="E37">
-        <v>4.7435857442492851E-5</v>
+        <v>6.8307634717189713E-3</v>
       </c>
       <c r="F37">
-        <v>4.4925481134973572E-5</v>
+        <v>6.4692692834361944E-3</v>
       </c>
       <c r="G37">
-        <v>4.2165774921120498E-5</v>
+        <v>6.0718715886413513E-3</v>
       </c>
       <c r="H37">
-        <v>4.0300553792685866E-5</v>
+        <v>5.8032797461467648E-3</v>
       </c>
       <c r="I37">
-        <v>3.7966139837351309E-5</v>
+        <v>5.4671241365785881E-3</v>
       </c>
       <c r="J37">
-        <v>3.2580069964523199E-5</v>
+        <v>4.6915300748913407E-3</v>
       </c>
       <c r="K37">
-        <v>2.6842456190081921E-5</v>
+        <v>3.8653136913717962E-3</v>
       </c>
       <c r="L37">
-        <v>2.3437097967413596E-5</v>
+        <v>3.3749421073075575E-3</v>
       </c>
       <c r="M37">
-        <v>2.0976284123533386E-5</v>
+        <v>3.0205849137888074E-3</v>
       </c>
       <c r="N37">
-        <v>1.9583141544536354E-5</v>
+        <v>2.8199723824132352E-3</v>
       </c>
       <c r="O37">
-        <v>1.8700918705049742E-5</v>
+        <v>2.692932293527163E-3</v>
       </c>
       <c r="P37">
-        <v>1.774361910004815E-5</v>
+        <v>2.5550811504069337E-3</v>
       </c>
       <c r="Q37">
-        <v>1.6941393889991495E-5</v>
+        <v>2.4395607201587754E-3</v>
       </c>
       <c r="R37">
-        <v>1.6314966729295194E-5</v>
+        <v>2.3493552090185078E-3</v>
       </c>
       <c r="S37">
-        <v>1.5769763076556327E-5</v>
+        <v>2.2708458830241109E-3</v>
       </c>
       <c r="T37">
-        <v>1.5100453372853578E-5</v>
+        <v>2.1744652856909154E-3</v>
       </c>
       <c r="U37">
-        <v>1.4725995929845884E-5</v>
+        <v>2.1205434138978074E-3</v>
       </c>
       <c r="V37">
-        <v>1.4280025210106593E-5</v>
+        <v>2.0563236302553493E-3</v>
       </c>
       <c r="W37">
-        <v>1.3797556772426041E-5</v>
+        <v>1.98684817522935E-3</v>
       </c>
       <c r="X37">
-        <v>1.3363105838681873E-5</v>
+        <v>1.9242872407701896E-3</v>
       </c>
       <c r="Y37">
-        <v>1.2943267803290858E-5</v>
+        <v>1.8638305636738835E-3</v>
       </c>
       <c r="Z37">
-        <v>1.2546517284086943E-5</v>
+        <v>1.8066984889085198E-3</v>
       </c>
       <c r="AA37">
-        <v>1.216347767780693E-5</v>
+        <v>1.751540785604198E-3</v>
       </c>
       <c r="AB37">
-        <v>1.1792345585747998E-5</v>
+        <v>1.6980977643477118E-3</v>
       </c>
       <c r="AC37">
-        <v>1.1432702109587958E-5</v>
+        <v>1.6463091037806658E-3</v>
       </c>
       <c r="AD37">
-        <v>1.1084236840358739E-5</v>
+        <v>1.5961301050116585E-3</v>
       </c>
       <c r="AE37">
-        <v>1.0746497572548885E-5</v>
+        <v>1.5474956504470394E-3</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B38">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C38">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D38">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E38">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F38">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G38">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H38">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I38">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J38">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K38">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L38">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M38">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N38">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O38">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P38">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q38">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R38">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S38">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T38">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U38">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V38">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W38">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X38">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y38">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z38">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA38">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB38">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC38">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD38">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE38">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B39">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C39">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D39">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E39">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F39">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G39">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H39">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I39">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J39">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K39">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L39">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M39">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N39">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O39">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P39">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q39">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R39">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S39">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T39">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U39">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V39">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W39">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X39">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y39">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z39">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA39">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB39">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC39">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD39">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE39">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B40">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C40">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D40">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E40">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F40">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G40">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H40">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I40">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J40">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K40">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L40">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M40">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N40">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O40">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P40">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q40">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R40">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S40">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T40">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U40">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V40">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W40">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X40">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y40">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z40">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA40">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB40">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC40">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD40">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE40">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B41">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C41">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D41">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E41">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F41">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G41">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H41">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I41">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J41">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K41">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L41">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M41">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N41">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O41">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P41">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q41">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R41">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S41">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T41">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U41">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V41">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W41">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X41">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y41">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z41">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA41">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB41">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC41">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD41">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE41">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B42">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C42">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D42">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E42">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F42">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G42">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H42">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I42">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J42">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K42">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L42">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M42">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N42">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O42">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P42">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q42">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R42">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S42">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T42">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U42">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V42">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W42">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X42">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y42">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z42">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA42">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB42">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC42">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD42">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE42">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B43">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C43">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D43">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E43">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F43">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G43">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H43">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I43">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J43">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K43">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L43">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M43">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N43">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O43">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P43">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q43">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R43">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S43">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T43">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U43">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V43">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W43">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X43">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y43">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z43">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA43">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB43">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC43">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD43">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE43">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B44">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C44">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D44">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E44">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F44">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G44">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H44">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I44">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J44">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K44">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L44">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M44">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N44">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O44">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P44">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q44">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R44">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S44">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T44">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U44">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V44">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W44">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X44">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y44">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z44">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA44">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB44">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC44">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD44">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE44">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B45">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C45">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D45">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E45">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F45">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G45">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H45">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I45">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J45">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K45">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L45">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M45">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N45">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O45">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P45">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q45">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R45">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S45">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T45">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U45">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V45">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W45">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X45">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y45">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z45">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA45">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB45">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC45">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD45">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE45">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B46">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C46">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D46">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E46">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F46">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G46">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H46">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I46">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J46">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K46">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L46">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M46">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N46">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O46">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P46">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q46">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R46">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S46">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T46">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U46">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V46">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W46">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X46">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y46">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z46">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA46">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB46">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC46">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD46">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE46">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B47">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C47">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D47">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E47">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F47">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G47">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H47">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I47">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J47">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K47">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L47">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M47">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N47">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O47">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P47">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q47">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R47">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S47">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T47">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U47">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V47">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W47">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X47">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y47">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z47">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA47">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB47">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC47">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD47">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE47">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B48">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C48">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D48">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E48">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F48">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G48">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H48">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I48">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J48">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K48">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L48">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M48">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N48">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O48">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P48">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q48">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R48">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S48">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T48">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U48">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V48">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W48">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X48">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y48">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z48">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA48">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB48">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC48">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD48">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE48">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>2.7428115613564484E-5</v>
+        <v>3.949648648353286E-3</v>
       </c>
       <c r="B49">
-        <v>2.8685527434236355E-5</v>
+        <v>4.130715950530035E-3</v>
       </c>
       <c r="C49">
-        <v>2.9464399351191765E-5</v>
+        <v>4.242873506571614E-3</v>
       </c>
       <c r="D49">
-        <v>2.9966399730874229E-5</v>
+        <v>4.3151615612458888E-3</v>
       </c>
       <c r="E49">
-        <v>3.0623318465678417E-5</v>
+        <v>4.4097578590576924E-3</v>
       </c>
       <c r="F49">
-        <v>2.9401973338523972E-5</v>
+        <v>4.2338841607474521E-3</v>
       </c>
       <c r="G49">
-        <v>2.7475487596602153E-5</v>
+        <v>3.9564702139107105E-3</v>
       </c>
       <c r="H49">
-        <v>2.6182005608253947E-5</v>
+        <v>3.7702088075885687E-3</v>
       </c>
       <c r="I49">
-        <v>2.5348693719133653E-5</v>
+        <v>3.6502118955552458E-3</v>
       </c>
       <c r="J49">
-        <v>2.2653937456403742E-5</v>
+        <v>3.2621669937221388E-3</v>
       </c>
       <c r="K49">
-        <v>1.9264089951818638E-5</v>
+        <v>2.7740289530618838E-3</v>
       </c>
       <c r="L49">
-        <v>1.7330319512949852E-5</v>
+        <v>2.4955660098647785E-3</v>
       </c>
       <c r="M49">
-        <v>1.5896130830535185E-5</v>
+        <v>2.2890428395970666E-3</v>
       </c>
       <c r="N49">
-        <v>1.4697597270001239E-5</v>
+        <v>2.1164540068801785E-3</v>
       </c>
       <c r="O49">
-        <v>1.393279885360164E-5</v>
+        <v>2.0063230349186361E-3</v>
       </c>
       <c r="P49">
-        <v>1.3325935360203623E-5</v>
+        <v>1.9189346918693218E-3</v>
       </c>
       <c r="Q49">
-        <v>1.2799798048239619E-5</v>
+        <v>1.8431709189465051E-3</v>
       </c>
       <c r="R49">
-        <v>1.2359178574147937E-5</v>
+        <v>1.7797217146773032E-3</v>
       </c>
       <c r="S49">
-        <v>1.193158423451146E-5</v>
+        <v>1.7181481297696502E-3</v>
       </c>
       <c r="T49">
-        <v>1.1533099032015018E-5</v>
+        <v>1.6607662606101627E-3</v>
       </c>
       <c r="U49">
-        <v>1.1069333160264559E-5</v>
+        <v>1.5939839750780966E-3</v>
       </c>
       <c r="V49">
-        <v>1.080999626553639E-5</v>
+        <v>1.5566394622372401E-3</v>
       </c>
       <c r="W49">
-        <v>1.0456619419137267E-5</v>
+        <v>1.5057531963557664E-3</v>
       </c>
       <c r="X49">
-        <v>1.0122441520895871E-5</v>
+        <v>1.4576315790090055E-3</v>
       </c>
       <c r="Y49">
-        <v>9.805416450845014E-6</v>
+        <v>1.4119799689216821E-3</v>
       </c>
       <c r="Z49">
-        <v>9.504812409730984E-6</v>
+        <v>1.3686929870012619E-3</v>
       </c>
       <c r="AA49">
-        <v>9.2147977051335719E-6</v>
+        <v>1.3269308695392343E-3</v>
       </c>
       <c r="AB49">
-        <v>8.9350247812432111E-6</v>
+        <v>1.2866435684990225E-3</v>
       </c>
       <c r="AC49">
-        <v>8.664105397835696E-6</v>
+        <v>1.2476311772883402E-3</v>
       </c>
       <c r="AD49">
-        <v>8.4016567415176083E-6</v>
+        <v>1.2098385707785355E-3</v>
       </c>
       <c r="AE49">
-        <v>8.1473331005567998E-6</v>
+        <v>1.1732159664801791E-3</v>
       </c>
     </row>
     <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>2.8620591038240051E-3</v>
+        <v>5.7241182076480102E-3</v>
       </c>
       <c r="B50">
-        <v>3.0075586304487748E-3</v>
+        <v>6.0151172608975496E-3</v>
       </c>
       <c r="C50">
-        <v>3.1119042234531605E-3</v>
+        <v>6.2238084469063209E-3</v>
       </c>
       <c r="D50">
-        <v>3.1871592651813536E-3</v>
+        <v>6.3743185303627072E-3</v>
       </c>
       <c r="E50">
-        <v>3.2772990948200598E-3</v>
+        <v>6.5545981896401196E-3</v>
       </c>
       <c r="F50">
-        <v>3.1555685695841052E-3</v>
+        <v>6.3111371391682105E-3</v>
       </c>
       <c r="G50">
-        <v>2.959843553552929E-3</v>
+        <v>5.9196871071058579E-3</v>
       </c>
       <c r="H50">
-        <v>2.8019513025648317E-3</v>
+        <v>5.6039026051296634E-3</v>
       </c>
       <c r="I50">
-        <v>2.6880852318440416E-3</v>
+        <v>5.3761704636880831E-3</v>
       </c>
       <c r="J50">
-        <v>2.4382403997928719E-3</v>
+        <v>4.8764807995857438E-3</v>
       </c>
       <c r="K50">
-        <v>2.0953461663851848E-3</v>
+        <v>4.1906923327703696E-3</v>
       </c>
       <c r="L50">
-        <v>1.8946713616123146E-3</v>
+        <v>3.7893427232246293E-3</v>
       </c>
       <c r="M50">
-        <v>1.7633330699205641E-3</v>
+        <v>3.5266661398411282E-3</v>
       </c>
       <c r="N50">
-        <v>1.6498896107147022E-3</v>
+        <v>3.2997792214294044E-3</v>
       </c>
       <c r="O50">
-        <v>1.5514339081985557E-3</v>
+        <v>3.1028678163971114E-3</v>
       </c>
       <c r="P50">
-        <v>1.478812697711602E-3</v>
+        <v>2.9576253954232039E-3</v>
       </c>
       <c r="Q50">
-        <v>1.422632616840361E-3</v>
+        <v>2.8452652336807219E-3</v>
       </c>
       <c r="R50">
-        <v>1.3766672819371759E-3</v>
+        <v>2.7533345638743518E-3</v>
       </c>
       <c r="S50">
-        <v>1.3312818285069309E-3</v>
+        <v>2.6625636570138619E-3</v>
       </c>
       <c r="T50">
-        <v>1.284572148296572E-3</v>
+        <v>2.5691442965931439E-3</v>
       </c>
       <c r="U50">
-        <v>1.2432594348417048E-3</v>
+        <v>2.4865188696834096E-3</v>
       </c>
       <c r="V50">
-        <v>1.195001341103945E-3</v>
+        <v>2.39000268220789E-3</v>
       </c>
       <c r="W50">
-        <v>1.1646859421810358E-3</v>
+        <v>2.3293718843620716E-3</v>
       </c>
       <c r="X50">
-        <v>1.1279539596008442E-3</v>
+        <v>2.2559079192016884E-3</v>
       </c>
       <c r="Y50">
-        <v>1.0920736536346538E-3</v>
+        <v>2.1841473072693077E-3</v>
       </c>
       <c r="Z50">
-        <v>1.0587693830718748E-3</v>
+        <v>2.1175387661437495E-3</v>
       </c>
       <c r="AA50">
-        <v>1.0266418743292783E-3</v>
+        <v>2.0532837486585565E-3</v>
       </c>
       <c r="AB50">
-        <v>9.9567565012498348E-4</v>
+        <v>1.991351300249967E-3</v>
       </c>
       <c r="AC50">
-        <v>9.6581119222565218E-4</v>
+        <v>1.9316223844513044E-3</v>
       </c>
       <c r="AD50">
-        <v>9.369047277683443E-4</v>
+        <v>1.8738094555366886E-3</v>
       </c>
       <c r="AE50">
-        <v>9.0890118217672948E-4</v>
+        <v>1.817802364353459E-3</v>
       </c>
     </row>
     <row r="51" spans="1:31" x14ac:dyDescent="0.2">
@@ -23427,7 +23509,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AE109 AG7:AH7 AG4">
+  <conditionalFormatting sqref="A2:AE109 AG7:AH7 AG4 AG9 AH13:AH14 AH11">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -23448,7 +23530,7 @@
   <dimension ref="A1:AE109"/>
   <sheetViews>
     <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="AJ37" sqref="AJ37"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
